--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl25-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl25-Ackr2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.90892</v>
+        <v>4.6982685</v>
       </c>
       <c r="H2">
-        <v>13.81784</v>
+        <v>9.396537</v>
       </c>
       <c r="I2">
-        <v>0.2006971010378393</v>
+        <v>0.1448422764790916</v>
       </c>
       <c r="J2">
-        <v>0.1527467613647123</v>
+        <v>0.108319921689495</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.925152134213334</v>
+        <v>1.309159988809</v>
       </c>
       <c r="R2">
-        <v>11.55091280528</v>
+        <v>7.854959932854001</v>
       </c>
       <c r="S2">
-        <v>0.2006971010378393</v>
+        <v>0.1448422764790916</v>
       </c>
       <c r="T2">
-        <v>0.1527467613647123</v>
+        <v>0.108319921689495</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>15.833826</v>
       </c>
       <c r="I3">
-        <v>0.1533188485097317</v>
+        <v>0.1627129514638446</v>
       </c>
       <c r="J3">
-        <v>0.1750321064299758</v>
+        <v>0.1825266896054461</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -641,10 +641,10 @@
         <v>13.236160174092</v>
       </c>
       <c r="S3">
-        <v>0.1533188485097317</v>
+        <v>0.1627129514638446</v>
       </c>
       <c r="T3">
-        <v>0.1750321064299758</v>
+        <v>0.1825266896054461</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.866044666666666</v>
+        <v>5.274651666666667</v>
       </c>
       <c r="H4">
-        <v>17.598134</v>
+        <v>15.823955</v>
       </c>
       <c r="I4">
-        <v>0.1704026329959644</v>
+        <v>0.162611514227898</v>
       </c>
       <c r="J4">
-        <v>0.1945353235065849</v>
+        <v>0.1824129002437912</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.634557703580889</v>
+        <v>1.469767621178889</v>
       </c>
       <c r="R4">
-        <v>14.711019332228</v>
+        <v>13.22790859061</v>
       </c>
       <c r="S4">
-        <v>0.1704026329959644</v>
+        <v>0.162611514227898</v>
       </c>
       <c r="T4">
-        <v>0.1945353235065849</v>
+        <v>0.1824129002437912</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.9025095</v>
+        <v>5.865133</v>
       </c>
       <c r="H5">
-        <v>11.805019</v>
+        <v>11.730266</v>
       </c>
       <c r="I5">
-        <v>0.1714618993270014</v>
+        <v>0.1808153824270886</v>
       </c>
       <c r="J5">
-        <v>0.1304964032076572</v>
+        <v>0.1352223158932856</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.644718532149667</v>
+        <v>1.634303670095334</v>
       </c>
       <c r="R5">
-        <v>9.868311192898</v>
+        <v>9.805822020572002</v>
       </c>
       <c r="S5">
-        <v>0.1714618993270014</v>
+        <v>0.1808153824270886</v>
       </c>
       <c r="T5">
-        <v>0.1304964032076572</v>
+        <v>0.1352223158932856</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.426464</v>
+        <v>5.310348</v>
       </c>
       <c r="H6">
-        <v>10.279392</v>
+        <v>15.931044</v>
       </c>
       <c r="I6">
-        <v>0.09953529518514022</v>
+        <v>0.1637119916020532</v>
       </c>
       <c r="J6">
-        <v>0.1136316411825823</v>
+        <v>0.183647383979002</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.9547750563626667</v>
+        <v>1.479714309272</v>
       </c>
       <c r="R6">
-        <v>8.592975507264001</v>
+        <v>13.317428783448</v>
       </c>
       <c r="S6">
-        <v>0.09953529518514022</v>
+        <v>0.1637119916020532</v>
       </c>
       <c r="T6">
-        <v>0.1136316411825823</v>
+        <v>0.183647383979002</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.042732666666666</v>
+        <v>6.010791999999999</v>
       </c>
       <c r="H7">
-        <v>21.128198</v>
+        <v>18.032376</v>
       </c>
       <c r="I7">
-        <v>0.2045842229443229</v>
+        <v>0.1853058838000238</v>
       </c>
       <c r="J7">
-        <v>0.2335577643084875</v>
+        <v>0.2078707885889801</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>1.962438676946222</v>
+        <v>1.674891162021333</v>
       </c>
       <c r="R7">
-        <v>17.661948092516</v>
+        <v>15.074020458192</v>
       </c>
       <c r="S7">
-        <v>0.2045842229443229</v>
+        <v>0.1853058838000238</v>
       </c>
       <c r="T7">
-        <v>0.2335577643084875</v>
+        <v>0.2078707885889801</v>
       </c>
     </row>
   </sheetData>
